--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11835.95543596606</v>
+        <v>2355355.131757247</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11835.95543596606</v>
+        <v>2355355.131757247</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37910.3595492766</v>
+        <v>2276735.627262898</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37910.3595492766</v>
+        <v>2276735.627262898</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266176720.234608</v>
+        <v>50815672.63372264</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12154.73899621628</v>
+        <v>1261060.422790813</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23014.29850686195</v>
+        <v>2300046.481065203</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33873.85801750759</v>
+        <v>3339032.539339595</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45885.46917128967</v>
+        <v>4315594.889685752</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57897.08032507172</v>
+        <v>5292157.240031909</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69908.69147885377</v>
+        <v>6268719.590378063</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>81920.30263263581</v>
+        <v>7245281.940724215</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>93931.91378641794</v>
+        <v>8221844.291070367</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>105718.2814702931</v>
+        <v>9184738.854166931</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>117571.7247097243</v>
+        <v>10160981.4528192</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>129425.1679491549</v>
+        <v>11137224.05147129</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>141278.5648812623</v>
+        <v>12113466.65012342</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>153132.0081206936</v>
+        <v>13089709.24877575</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>164985.4513601242</v>
+        <v>14065951.84742785</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>176838.8482922314</v>
+        <v>15042194.44607998</v>
       </c>
     </row>
   </sheetData>
